--- a/data/trans_dic/P32E$bar_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Dificultad-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -874,7 +874,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en bares, pub o restaurantes (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$bar_2023-Dificultad-trans_dic.xlsx
+++ b/data/trans_dic/P32E$bar_2023-Dificultad-trans_dic.xlsx
@@ -567,10 +567,10 @@
         <v>0.4307257898735258</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.7989729555228842</v>
+        <v>0.7989729555228839</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.4703560579966859</v>
+        <v>0.4703560579966858</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2758714403331519</v>
+        <v>0.251482640223772</v>
       </c>
       <c r="D5" s="5" t="n">
         <v>0.25140009587478</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3022048224909836</v>
+        <v>0.3152286112399196</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.6017356737599699</v>
+        <v>0.6094952650041765</v>
       </c>
       <c r="D6" s="5" t="n">
         <v>1</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.6402667819981681</v>
+        <v>0.6363963309988226</v>
       </c>
     </row>
     <row r="7">
@@ -619,13 +619,13 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.7617981932974781</v>
+        <v>0.7617981932974779</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.6639249051196769</v>
+        <v>0.6639249051196768</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.7379305311037716</v>
+        <v>0.7379305311037718</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5915908879205445</v>
+        <v>0.563580831623502</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4146380045410567</v>
+        <v>0.3796564000343196</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.5680944182470655</v>
+        <v>0.5920851780282115</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.8904113491973048</v>
+        <v>0.8766526373292942</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8594210055396607</v>
+        <v>0.8540279709139281</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8479256656333346</v>
+        <v>0.8429940849615125</v>
       </c>
     </row>
     <row r="10">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.757835599841406</v>
+        <v>0.7578355998414064</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>0.8548614011796185</v>
+        <v>0.8548614011796183</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>0.7940145852398598</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.520337321624216</v>
+        <v>0.5079859816152196</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.6610005166020707</v>
+        <v>0.6461509165835836</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.6412219953128682</v>
+        <v>0.6439591989331053</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8987982103630113</v>
+        <v>0.8918944129106906</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9606291439425284</v>
+        <v>0.9579424562764288</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.9030645314120579</v>
+        <v>0.8949823675515369</v>
       </c>
     </row>
     <row r="13">
@@ -732,10 +732,10 @@
         <v>0.6809943399733952</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>0.6312981357899944</v>
+        <v>0.6312981357899943</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.664208488432771</v>
+        <v>0.6642084884327711</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5376327043970208</v>
+        <v>0.5288741960248966</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3893774720898727</v>
+        <v>0.4088229320006666</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.5297999847429977</v>
+        <v>0.5390279515727793</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8079411088228123</v>
+        <v>0.8042272214346601</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8080087700044084</v>
+        <v>0.8150774468763815</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.7704927592162386</v>
+        <v>0.7697123787058199</v>
       </c>
     </row>
     <row r="16">
@@ -784,13 +784,13 @@
         </is>
       </c>
       <c r="C16" s="5" t="n">
-        <v>0.6569461383875637</v>
+        <v>0.6569461383875638</v>
       </c>
       <c r="D16" s="5" t="n">
         <v>0.7152802354023977</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>0.6732744359921026</v>
+        <v>0.6732744359921027</v>
       </c>
     </row>
     <row r="17">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.5688369954773019</v>
+        <v>0.5646761471249696</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.589021926611499</v>
+        <v>0.5732996075400347</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.6034261284198864</v>
+        <v>0.5982836248946619</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7404801971267296</v>
+        <v>0.7307816365087456</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.8099958673373021</v>
+        <v>0.8184848742666792</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.743671092417775</v>
+        <v>0.7313595317323056</v>
       </c>
     </row>
     <row r="19">
@@ -966,13 +966,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>10432</v>
+        <v>9510</v>
       </c>
       <c r="D6" s="6" t="n">
         <v>1146</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>12806</v>
+        <v>13357</v>
       </c>
     </row>
     <row r="7">
@@ -983,13 +983,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>22754</v>
+        <v>23047</v>
       </c>
       <c r="D7" s="6" t="n">
         <v>4560</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>27131</v>
+        <v>26967</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>23553</v>
+        <v>22438</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>5324</v>
+        <v>4875</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>29912</v>
+        <v>31176</v>
       </c>
     </row>
     <row r="11">
@@ -1055,13 +1055,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>35450</v>
+        <v>34902</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>11035</v>
+        <v>10966</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>44647</v>
+        <v>44387</v>
       </c>
     </row>
     <row r="12">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>16002</v>
+        <v>15623</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>12087</v>
+        <v>11816</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>31445</v>
+        <v>31579</v>
       </c>
     </row>
     <row r="15">
@@ -1127,13 +1127,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>27642</v>
+        <v>27429</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>17566</v>
+        <v>17517</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>44285</v>
+        <v>43889</v>
       </c>
     </row>
     <row r="16">
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>28549</v>
+        <v>28084</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>10546</v>
+        <v>11073</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>42483</v>
+        <v>43222</v>
       </c>
     </row>
     <row r="19">
@@ -1199,13 +1199,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>42902</v>
+        <v>42705</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>21884</v>
+        <v>22076</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>61783</v>
+        <v>61720</v>
       </c>
     </row>
     <row r="20">
@@ -1254,13 +1254,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>91857</v>
+        <v>91185</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>36973</v>
+        <v>35987</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>135320</v>
+        <v>134167</v>
       </c>
     </row>
     <row r="23">
@@ -1271,13 +1271,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>119574</v>
+        <v>118008</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>50844</v>
+        <v>51377</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>166770</v>
+        <v>164010</v>
       </c>
     </row>
     <row r="24">
